--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyberlox\Desktop\EMK remember\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EFB2D6-F74F-42CB-9E27-9F0281CF2A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652B9812-BFC1-4755-A1A2-0C0480145B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,11 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc153527117" localSheetId="0">all!$A$22</definedName>
+    <definedName name="_Toc153527119" localSheetId="0">all!$A$35</definedName>
     <definedName name="_Toc158295172" localSheetId="0">all!$A$2</definedName>
     <definedName name="_Toc158295173" localSheetId="0">all!$A$10</definedName>
+    <definedName name="_Toc158295175" localSheetId="0">all!$A$25</definedName>
+    <definedName name="_Toc158295177" localSheetId="0">all!$A$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Название</t>
   </si>
@@ -643,12 +646,758 @@
   <si>
     <t>/imgs/3_3.jpg</t>
   </si>
+  <si>
+    <t>ПРИВЯЗКА ОПЛАТЫ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверить наличие нераспределенных оплат можно в журнале </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Список нераспределенных денежных средств</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в разделе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Казначейство</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/4_1.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">При необходимости настраивается отбор по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>периоду</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>клиенту</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> или другим интересующим реквизитам:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/4_2.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">После того, как </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Поступления безналичных ДС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> будет загружены в программу, их нужно привязать к заказам. Для этого в документе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заказ клиента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> нужно перейти по кнопке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Зачет оплаты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на закладке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Основное</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/4_3.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Во вновь открывшемся окне перейти на закладку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Неиспользованные авансы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Если нужная платежка не отображается, переключиться на режим просмотра документов «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>По всем договорам клиента»:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/4_4.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Далее выделить нужную платежку и нажать кнопку «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Установить договор в платежке»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/4_5.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/4_6.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/4_7.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Оплата должна быть произведена именно по тому договору/спецификации, который указываются в заказе:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/4_8.jpg</t>
+  </si>
+  <si>
+    <t>Внимание! Дата Заказа клиента должна быть раньше даты Поступления безналичных ДС. В противоположном случае нужно поменять дату заказа.
+Если появляется сообщение о том, что установить договор по документу можно только с пустым договором, то это значит, что платежка уже привязана частично к заказу с другим договором. Привязка остаточной суммы производится сотрудниками Отдела Товарного Учета.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">После того, как в платежке будет установлен договор, она перемещается на закладку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Нераспределенные платежи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Нужно нажать кнопку «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Зачесть платеж»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, а затем – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Выполнить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>В заказе отобразится сумма и процент привязанной оплаты:</t>
+  </si>
+  <si>
+    <t>/imgs/4_9.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Внимание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Одна платежка может быть привязана к нескольким заказам. Информация по какому/каким заказам произведена оплата прописана в документе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Поступление безналичных ДС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Назначение платежа.</t>
+    </r>
+  </si>
+  <si>
+    <t>СЧЕТ-ФАКТУРА ВЫДАННЫЙ (АВАНС)</t>
+  </si>
+  <si>
+    <t>/imgs/5_1.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если была внесена предоплата, то менеджер в пятидневный срок обязательно должен оформить документ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Счет-фактура выданный (аванс)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. Создается он на основании документа </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Поступление безналичных ДС (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">документ расположен в разделе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Казначейство – Безналичные платежи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На закладке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Основное</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> вручную устанавливается </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Номер</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дата</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (поступления ДС на наш расчетный счет) документа </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(в случае ТД Энергомашкомплект номер узнавать у бухгалтерии)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Далее нужно нажать кнопку «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заполнить по платежу»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, на закладе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Авансы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> табличная часть должна быть заполнена данными из платежки (основание платежа и полная сумма из платежки в одной строке):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">По кнопке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Печать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выводится печатная форма документа:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Внимание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Грузополучатель</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Грузоотправитель</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не заполняется! Необходимо проверить правильность заполнения № сч-ф, даты, ИНН/КПП и адреса покупателя. В табличной части должна быть одна строка!</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/5_2.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/5_3.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/5_4.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/5_5.jpg</t>
+  </si>
+  <si>
+    <t>ЗАКАЗ ПОСТАВЩИКУ НА ПРОИЗВОДСТВЕННУЮ ПЛОЩАДКУ (САЗ ЗАО, ИПЦ ЗАО, КСА ЗАО, РЕГУЛЯТОР НПО, САЗ ЗАО КОМПЕНСАТОРЫ)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +1527,37 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -846,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -907,6 +1687,22 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1497,6 +2293,198 @@
         <v>50</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+    </row>
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+    </row>
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyberlox\Desktop\EMK remember\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652B9812-BFC1-4755-A1A2-0C0480145B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56112122-4A6E-488C-B215-882CCE189B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_Toc152235560" localSheetId="0">all!$A$49</definedName>
     <definedName name="_Toc153527117" localSheetId="0">all!$A$22</definedName>
     <definedName name="_Toc153527119" localSheetId="0">all!$A$35</definedName>
     <definedName name="_Toc158295172" localSheetId="0">all!$A$2</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
   <si>
     <t>Название</t>
   </si>
@@ -1391,6 +1392,513 @@
   </si>
   <si>
     <t>ЗАКАЗ ПОСТАВЩИКУ НА ПРОИЗВОДСТВЕННУЮ ПЛОЩАДКУ (САЗ ЗАО, ИПЦ ЗАО, КСА ЗАО, РЕГУЛЯТОР НПО, САЗ ЗАО КОМПЕНСАТОРЫ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На основании </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заказа клиента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> создается </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заказ поставщику</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>В закладке Основное заполняется: 
+-	Поставщик/Контрагент (САЗ ЗАО, ИПЦ ЗАО, КСА ЗАО, Регулятор НПО, САЗ ЗАО КОМПЕНСАТОРЫ); 
+-	Организация указывается «СКЛАД»; 
+-	Склад указывается «УПТК-1» или «ТРАНЗИТ»; 
+-	Договор подгружается автоматически; 
+-	в Комментарии указывается требования к изготовлению продукции.</t>
+  </si>
+  <si>
+    <t>В закладке Товары 
+-	Назначение заполняется автоматически; 
+-	Комментарий, Цена заполняется на основании бланка для заказа, задачи на расценку, ОЛ.</t>
+  </si>
+  <si>
+    <t>/imgs/6_1.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/6_2.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/6_3.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В закладке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Доставка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> остается неизменным.</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/6_4.jpg</t>
+  </si>
+  <si>
+    <t>В закладке «Дополнительно»:
+-	Выбираем «Цена включает НДС» (ставим галочку); 
+-	Налогообложение «Закупка облагается НДС».</t>
+  </si>
+  <si>
+    <t>/imgs/6_5.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Внимание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Заказ поставщику необходимо провести. Далее нажать кнопку Печать и выбрать нужную производственную площадку. </t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/6_6.jpg</t>
+  </si>
+  <si>
+    <t>Внимание! Заказ поставщику подписывается в КД, кроме Заказа поставщику на АО НПО «Регулятор».
+После подписания Заказа поставщику создается задача в программе «Мотив». Открываем родительскую задачу по проекту, переходим во вкладку Описание, нажимаем «Создать подзадачу».</t>
+  </si>
+  <si>
+    <t>/imgs/6_7.jpg</t>
+  </si>
+  <si>
+    <t>В появившейся новой вкладке заполняем нужные параметры.</t>
+  </si>
+  <si>
+    <t>/imgs/6_8.jpg</t>
+  </si>
+  <si>
+    <t>Внимание!
+-	Для оформления заказа на ЗАО «САЗ» необходимо учитывать возможности изготовления продукции каждого цеха (продукция диаметром до Ду100 (включительно) и продукция свыше Ду100 (не включая) оформляются в два разных заказа поставщику).
+-	Для ЗАО «САЗ» необходимо объединять позиции в заказе поставщику с одинаковой номенклатурой, описанием и ценой.
+-	Для ЗАО «КСА» в закладке «Дополнительно» необходимо заполнять «Приемку представителем заказчика» и «Требования к документации».</t>
+  </si>
+  <si>
+    <t>/imgs/6_9.jpg</t>
+  </si>
+  <si>
+    <t>ЗАКУПКА У СТОРОННИХ ПОСТАВЩИКОВ
+Лист согласования закупки у сторонних поставщиков (у ответственных менеджеров через КД)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛСЗ создается из основного счета, в случае если заказанная продукция будет переделываться создается из «Левого счета».
+В «Левом счете» в закладке Основное заполняемые параметры идентичны Заказу клиента до поступления продукции под Склад. </t>
+  </si>
+  <si>
+    <t>/imgs/7_1.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Закладка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Товары </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">заполняется номенклатура, которая будет списываться с остатков склада. Колонка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>№ комплекта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не заполняется. В колонке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Действия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> устанавливается значение «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">К обеспечению» </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">и галочка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«обособленно»</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">В колонке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Склад</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выбирается место отгрузки. Колонки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Количество</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> проставляется в соответствии с производственной необходимостью. В колонке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Базовая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> устанавливается цена закупки (из коммерческого предложения), в колонке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Цена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> устанавливается цена 1С (цена перехода (цена закупки, умноженная на коэффициент)).</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/7_2.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Закладка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Товары на печать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не заполняется.</t>
+    </r>
+  </si>
+  <si>
+    <t>Перед согласованием «Левого счета» с коммерческой дирекцией (заместителем коммерческого директора) необходимо убедиться в правильности заполнения счета: номенклатура, количество, цены (базовая, закупки), дату отгрузки и статус «На согласовании». После согласования КД статус изменится на «К выполнению».
+По кнопке Печать доступны печатные формы документа, в частности, Лист согласования закупки:</t>
+  </si>
+  <si>
+    <t>Внимание! ЛСЗ подписывается в КД. После подписания ЛСЗ отправляется ответственным за закупку менеджерам на почту. Исключением является заказ в АО «Тулаэлектропривод», оформляется подзадача в системе «Мотив».
+Внимание! После поступления продукции под склад необходимо изменить Контрагента на производственную площадку (ЗАО «САЗ», ЗАО «КСА», ЗАО «ВАЗ»), где будет происходить доработка продукции и выбрать соглашение «Перемещение на производственную площадку».</t>
+  </si>
+  <si>
+    <t>/imgs/7_3.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/7_4.jpg</t>
+  </si>
+  <si>
+    <t>ЗАКУПКА У СТОРОННИХ ПОСТАВЩИКОВ
+Согласование заказа с КД (самостоятельная закупка КО без участия ответственных менеджеров КД)</t>
+  </si>
+  <si>
+    <t>/imgs/8_1.jpg</t>
+  </si>
+  <si>
+    <t>В случае если КО (коммерческий отдел) самостоятельно закупает продукцию, то оформляется Согласование заказа с КД на основании Счета на оплату, выставленным поставщиком.
+Для оформления Согласования заказа с КД создается «Левый счет». Номенклатура создается самостоятельно через ОТУ.
+На основании «Левого счета» создается Заказ поставщику.</t>
+  </si>
+  <si>
+    <t>В закладке Основное заполняется: 
+-	«Поставщик/Контрагент» указываем организацию у кого закупаем; 
+-	«Организация» указываем организацию от кого закупаем; 
+-	«Склад» указывается «УПТК-1» или «ТРАНЗИТ»; 
+-	«Договор» подгружается автоматически; 
+-	в «Комментарии» указываем счет на оплату.</t>
+  </si>
+  <si>
+    <t>/imgs/8_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата заполняется в соответствии с условиями Счета на оплату/Спецификацией. Дата оплаты проставляется следующим календарным днем на момент подачи в оплату. </t>
+  </si>
+  <si>
+    <t>/imgs/8_3.jpg</t>
+  </si>
+  <si>
+    <t>В закладке Товары 
+-	Назначение заполняется автоматически; 
+-	Комментарий, Цена заполняется на основании Счета на оплату.</t>
+  </si>
+  <si>
+    <t>/imgs/8_4.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кнопке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Печать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> доступны печатные формы документа, в частности, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Согласование заказа с КД.</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/8_5.jpg</t>
+  </si>
+  <si>
+    <t>Внимание! При подаче согласования заказа с КД прикладывается счет на оплату.
+После того, как Поступления безналичных ДС будут загружены в программу, их нужно привязать к заказу поставщику. Для этого в документе Заказ поставщику нужно перейти по кнопке Зачет оплаты на закладке Основное.</t>
+  </si>
+  <si>
+    <t>/imgs/8_6.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Внимание! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>После поступления продукции под склад КО необходимо самостоятельно оформить Приобретение товаров и услуг.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1626,7 +2134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1688,21 +2196,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2018,15 +2529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" style="18" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" style="18" customWidth="1"/>
     <col min="2" max="2" width="143.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
   </cols>
@@ -2297,7 +2808,7 @@
       <c r="A25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2308,7 +2819,7 @@
       <c r="A26" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2319,7 +2830,7 @@
       <c r="A27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2330,7 +2841,7 @@
       <c r="A28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2341,7 +2852,7 @@
       <c r="A29" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2352,7 +2863,7 @@
       <c r="A30" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2363,7 +2874,7 @@
       <c r="A31" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2374,7 +2885,7 @@
       <c r="A32" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2385,7 +2896,7 @@
       <c r="A33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2396,7 +2907,7 @@
       <c r="A34" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="6"/>
@@ -2405,7 +2916,7 @@
       <c r="A35" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2416,7 +2927,7 @@
       <c r="A36" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -2427,7 +2938,7 @@
       <c r="A37" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2438,7 +2949,7 @@
       <c r="A38" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2449,7 +2960,7 @@
       <c r="A39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2460,30 +2971,228 @@
       <c r="A40" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-    </row>
-    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-    </row>
-    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-    </row>
-    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-    </row>
-    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-    </row>
-    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-    </row>
-    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="B40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyberlox\Desktop\EMK remember\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56112122-4A6E-488C-B215-882CCE189B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3202A2B-7149-425E-BF9C-4CF489C86BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3564" yWindow="2280" windowWidth="16140" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <definedName name="_Toc152235560" localSheetId="0">all!$A$49</definedName>
     <definedName name="_Toc153527117" localSheetId="0">all!$A$22</definedName>
     <definedName name="_Toc153527119" localSheetId="0">all!$A$35</definedName>
+    <definedName name="_Toc153527125" localSheetId="0">all!$A$66</definedName>
     <definedName name="_Toc158295172" localSheetId="0">all!$A$2</definedName>
     <definedName name="_Toc158295173" localSheetId="0">all!$A$10</definedName>
     <definedName name="_Toc158295175" localSheetId="0">all!$A$25</definedName>
     <definedName name="_Toc158295177" localSheetId="0">all!$A$40</definedName>
+    <definedName name="_Toc158295181" localSheetId="0">all!$A$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="161">
   <si>
     <t>Название</t>
   </si>
@@ -1900,12 +1902,814 @@
       <t>После поступления продукции под склад КО необходимо самостоятельно оформить Приобретение товаров и услуг.</t>
     </r>
   </si>
+  <si>
+    <t>ПРИОБРЕТЕНИЕ ТОВАРОВ И УСЛУГ</t>
+  </si>
+  <si>
+    <t>Приобретение товаров и услуг создается на основании УПД от поставщика. В программе 1С Приобретение товаров и услуг создается из Заказа поставщику.</t>
+  </si>
+  <si>
+    <t>/imgs/9_1.jpg</t>
+  </si>
+  <si>
+    <t>В закладке Основное заполняется: 
+■ Дата документа устанавливается реальная дата прихода продукции под склад; 
+■ Установить цену с ТЗР ставим галочку; 
+■ Склад назначения указывается «УПТК-1»; 
+■ Склад ставим кладовщика, у кого хранится продукция.
+Внимание! Закладка Товары заполняется автоматически из Заказа поставщику.</t>
+  </si>
+  <si>
+    <t>/imgs/9_2.jpg</t>
+  </si>
+  <si>
+    <t>Внимание! Необходимо проверить правильность заполнения колонок в закладке Товары с первичными документами от поставщика (УПД): количество, единицы измерения, цену, сумму НДС и сумму с НДС.
+Внимание! В закладке Файл необходимо прикрепить бухгалтерский документ от поставщика.</t>
+  </si>
+  <si>
+    <t>/imgs/9_3.jpg</t>
+  </si>
+  <si>
+    <t>На основании Приобретения товаров и услуг регистрируется счет-фактура, данные вносятся из УПД от поставщика.
+Внимание! Если поставщик работает без НДС, то счет-фактура не создается.</t>
+  </si>
+  <si>
+    <t>/imgs/9_4.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Внимание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Для проведения Приобретения товаров и услуг необходимо позвонить по номеру 2216.</t>
+    </r>
+  </si>
+  <si>
+    <t>РЕАЛИЗАЦИЯ ТОВАРОВ И УСЛУГ
+Реализация товаров и услуг с установленным флагом Бухгалтерский документ</t>
+  </si>
+  <si>
+    <t>Бухгалтерский документ (Реализация товаров и услуг) создается в том случае, когда поставка комплекта осуществляется частями. Если весь комплект отгружается одновременно см. след. блок.
+Перед созданием бухгалтерского документа нужно в документе Заказ клиента на закладке Дополнительно установить флаг Выписка бухгалтерского документа:</t>
+  </si>
+  <si>
+    <t>/imgs/10_1.jpg</t>
+  </si>
+  <si>
+    <t>/imgs/10_2.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Внимание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Если бухгалтерский документ создается на весь комплект до того, как заказ ПОЛНОСТЬЮ отгружен, то допоставку остатков по заказу нужно согласовывать с бухгалтерией! Бухгалтерскую реализацию необходимо создавать в один из дней, когда реально уезжал товар.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Документ Реализация товаров и услуг создается на основании заказа клиента:	</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Комментарий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> указывать номера и даты документов </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Реализаций товаров и услуг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, по которым были реальные отгрузки:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/10_3.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Закладки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Товары</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Товары на печать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> изначально не заполнены. Нужно перейти на закладку «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дополнительно»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, установить флаг </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Бухгалтерский документ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и нажать ссылку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заполнить бухгалтерский документ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/10_4.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Дата</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> документа - дата, когда реально уходила какая-то часть комплекта к клиенту:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/10_5.jpg</t>
+  </si>
+  <si>
+    <t>На закладке Дополнительно по ссылке Реквизиты печати ТОРГ12 заполняется:
+Документ:
+-	Если есть договор, то выбирается из списка договор;
+-	Если договор в 1С не создается (работа по соглашению ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%), то указывается номер и дата спецификации и договора;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> -	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Если договор не заключался совсем, и оплата была по счету, то выбирается Заказ клиента №…, но слова </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заказ клиента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> вручную перебиваются на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Счет:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/10_6.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Внимание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> При выгрузке документов в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Диадок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> нужно в окошке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Документ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> вручную написать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Договор № либо Спецификация №… от хх.хх.20хх г. к Договору №</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, в полях </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Номер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дата</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> указать соответственно номер и дату реального договора, по которому производится работа с клиентом.</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/10_7.jpg</t>
+  </si>
+  <si>
+    <t>Разделы Покупатели и Продавец заполняются так же, как в спецификации.
+В поле Грузополучатель нужно выбрать контрагента из справочника. Если клиент отсутствует в 1С, то нужно создать новую карточку партнера + контрагента.
+В поле Грузоотправитель указывать:
+-	Если отгрузка со склада - УЛТ ООО ОП
+-	Если отгрузка транзитом с наших заводов - КСА ООО или НПО Регулятор 
+-	Если от сторонних поставщиков – реквизиты контрагента
+В поле Счет грузоотправителя внимательно выбираем тот счет, который указан в спецификации. Счет должен быть заполнен обязательно!
+Раздел Подписи (Руководитель и Главный бухгалтер) поставляются автоматически.
+Если выбран грузоотправитель УЛТ ООО ОП, то
+-	Груз отпустил указывается ФИО кладовщика или лица, замещающего его во время отпуска.
+-	Отпустил (Должность) – указывается ФИО диспетчера или лица, замещающего его во время отпуска.
+Если выбран грузоотправитель, отличный от ОП ООО УЛТ, то поля «Груз отпустил» и «Отпустил (Должность)» нужно оставить пустыми или вручную в поле «Груз отпустил» указать ФИО Руководителя (например, Зиновьев Юрий Дмитриевич), «Отпустил (Должность)» – указать должность Руководителя, например, Генеральный директор.</t>
+  </si>
+  <si>
+    <t>/imgs/10_8.jpg</t>
+  </si>
+  <si>
+    <t>РЕАЛИЗАЦИЯ ТОВАРОВ И УСЛУГ
+Одновременная отгрузка</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Документ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Реализация товаров и услуг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> создается на основании документа </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заказ клиента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. В заказе на закладке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Товары</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в колонке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Действия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> необходимо установить </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Отгрузить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">для тех позиций, которые отгружаются в данный момент. Если отгрузка со склада из наличия, то поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Обособленно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в этой строке остается пустым, если товар заказан под КО, то в поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Обособленно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> нужно установить галочку. Если товар не был заказан с указанием данного заказа в назначении, то галочку установить нельзя.</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/11_1.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Далее, после проведения документа, создается </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Реализация товаров и услуг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/11_2.jpg</t>
+  </si>
+  <si>
+    <t>Закладки Товары и Товары на печать заполняются теми товарами, комплектами и комплектующими, которые отмечены в заказе действием Отгрузить/Отгрузить обособленно. 
+На закладке Основное в поле Дата документа нужно указать дату, когда реально уходит товар к клиенту.
+В поле Комментарий прописывается информация для упаковки. Так же в случае раздельной отгрузки необходимо указать номер и дату бухгалтерского документа. 
+В случае раздельной поставки счет-фактуру присваивают только в бухгалтерском документе на весь комплект, складские накладные на фактическое списание частей комплекта должны быть без счет-фактур!</t>
+  </si>
+  <si>
+    <t>/imgs/11_3.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На закладке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дополнительно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> по ссылке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Реквизиты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>печати</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ТОРГ12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> заполняется только в том случае, если сразу создается счет-фактура и печатается пакет документов для клиента (правила заполнения описаны в разделе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Реализация товаров и услуг с установленным флагом Бухгалтерский документ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>текущей инструкции). В противоположном случае здесь можно ничего не заполнять.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,6 +2870,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2134,7 +2945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2214,6 +3025,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2529,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3194,6 +4029,198 @@
       </c>
       <c r="C60" s="6"/>
     </row>
+    <row r="61" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A64" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A73" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyberlox\Desktop\EMK remember\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3202A2B-7149-425E-BF9C-4CF489C86BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E32249-0037-419B-AB40-47672EF59040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="2280" windowWidth="16140" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc152235560" localSheetId="0">all!$A$49</definedName>
-    <definedName name="_Toc153527117" localSheetId="0">all!$A$22</definedName>
-    <definedName name="_Toc153527119" localSheetId="0">all!$A$35</definedName>
-    <definedName name="_Toc153527125" localSheetId="0">all!$A$66</definedName>
+    <definedName name="_Toc151731930" localSheetId="0">all!$A$87</definedName>
+    <definedName name="_Toc152235560" localSheetId="0">all!$A$48</definedName>
+    <definedName name="_Toc153527117" localSheetId="0">all!$A$21</definedName>
+    <definedName name="_Toc153527119" localSheetId="0">all!$A$34</definedName>
+    <definedName name="_Toc153527125" localSheetId="0">all!$A$65</definedName>
+    <definedName name="_Toc153527128" localSheetId="0">all!$A$77</definedName>
+    <definedName name="_Toc153527129" localSheetId="0">all!$A$82</definedName>
+    <definedName name="_Toc153527131" localSheetId="0">all!$A$88</definedName>
     <definedName name="_Toc158295172" localSheetId="0">all!$A$2</definedName>
-    <definedName name="_Toc158295173" localSheetId="0">all!$A$10</definedName>
-    <definedName name="_Toc158295175" localSheetId="0">all!$A$25</definedName>
-    <definedName name="_Toc158295177" localSheetId="0">all!$A$40</definedName>
-    <definedName name="_Toc158295181" localSheetId="0">all!$A$61</definedName>
+    <definedName name="_Toc158295173" localSheetId="0">all!$A$9</definedName>
+    <definedName name="_Toc158295175" localSheetId="0">all!$A$24</definedName>
+    <definedName name="_Toc158295177" localSheetId="0">all!$A$39</definedName>
+    <definedName name="_Toc158295181" localSheetId="0">all!$A$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="202">
   <si>
     <t>Название</t>
   </si>
@@ -59,22 +63,6 @@
     <t>Справочник с клиентами находится в разделе Продажи:</t>
   </si>
   <si>
-    <t>/imgs/1_1.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/1_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При создании нового партнера открывается помощник регистрации нового партнера. 
-На первом шаге помощника нужно указать, какого контрагента нужно создать:
--  Компания с любой формой собственности (ИП, ООО, АО, ЗАО и т.п.)
-- Частное лицо
-</t>
-  </si>
-  <si>
-    <t>/imgs/1_3.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">На </t>
     </r>
@@ -99,9 +87,6 @@
       </rPr>
       <t xml:space="preserve"> помощника осуществляется поиск дублей по любой внесенной информации. Если клиент уже создан, то в нижней части экрана появляется информация о том, за каким отделом закреплен партнер. Для получения доступа нужно обратиться к директору по развитию ЭМК. Если дублей не обнаружено, то происходит переход на третий шаг помощника.</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/1_4.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">На третьем шаге помощника система заполняет Рабочее наименование партнера (то наименование, которое отображается в списке партнеров). Для упрощения работы рекомендуется не помещать наименование в кавычки и другие символы; форму собственности (если есть необходимость видеть ее в списке) переносить в конец строки. Данное наименование используется только в 1С и не выводится на печать.
@@ -114,9 +99,6 @@
 -	Юридический адрес может заполняться автоматически по ИНН. Менеджер КО заполняет фактический адрес. </t>
   </si>
   <si>
-    <t>/imgs/1_5.jpg</t>
-  </si>
-  <si>
     <t>На четвертом шаге помощника:
 -	Отрасль компании – обязательно нужно заполнить, в разрезе этих данных формируются многие отчеты.
 -	Поле Основание (договор) не обязательно к заполнению
@@ -124,54 +106,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Установленный флаг </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Указать идентификационные данные партнера</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> позволяет создать одновременно и партнера, и контрагента. Указываются юридические особенности компании (юр. лицо, юр. лицо за пределами РФ, ИП или обособленное подразделение).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
--	ИНН компании. Данное поле уникально, и не может повторяться у других клиентов, только в том случае если разное КПП. В прикладном решении есть возможность заполнить по ЕГРЮЛ/ЕГРИП поля:
--	КПП. Контрагент с неверно указанными ИНН/КПП попадает в сегмент клиентов, для которых отгрузка запрещена. 
--	Код по ОКПО;
--	Сокращенное юр. наименование с указанием формы собственности;
--	Публичное наименование (может совпадать с названием) – это название бренда компании, указывается без формы собственности;
--	Телефон или E-mail компании;
--	Также обязательно нужно создать хотя бы одно контактное лицо (флаг «Указать данные контактного лица» установлен и заблокирован для изменения). Указывается:
--	ФИО контактного лица;
--	Роль –должность контактного лица (не обязательно);
--	Телефон или E-mail контактного лица.</t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/1_6.jpg</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">На </t>
     </r>
     <r>
@@ -290,9 +224,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/1_7.jpg</t>
-  </si>
-  <si>
     <t>ЗАКАЗ КЛИЕНТА</t>
   </si>
   <si>
@@ -353,9 +284,6 @@
       </rPr>
       <t>Мегапрайс: Рабочее место менеджера по продажам:</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/2_1.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">В шапке обработки указывается:
@@ -367,9 +295,6 @@
 </t>
   </si>
   <si>
-    <t>/imgs/2_2.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">После того, как сформирована </t>
     </r>
@@ -415,9 +340,6 @@
       </rPr>
       <t xml:space="preserve"> – создается документ, который по необходимости редактируется.</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/2_3.jpg</t>
   </si>
   <si>
     <r>
@@ -475,34 +397,19 @@
     <t>В колонке «№ комплекта» указывается, какая комплектующая к какому комплекту относится, а также количество товара, используемое на один комплект.</t>
   </si>
   <si>
-    <t>/imgs/2_4.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/2_5.jpg</t>
-  </si>
-  <si>
     <t>В колонке Действия устанавливается:
 -	Резервировать на складе – если товар есть в наличии, ожидается предоплата (см. рисунок ниже, зеленая рамка);
 -	Отгрузить – если товар есть в наличии, работаем с клиентом по постоплате (см. рисунок ниже, голубая рамка);
 -	К обеспечению + установить галочку в поле «Обособленно» – если товара нет в наличии, изготавливаем или закупаем под клиента (см. рисунок ниже, красные рамки)</t>
   </si>
   <si>
-    <t>/imgs/2_6.jpg</t>
-  </si>
-  <si>
     <t>В колонке Склад выбирается место отгрузки (возможно выбрать разные склады для разных строк товара). Какие товары на каких складах находятся расписаны в отдельном файле. Если отгрузка производится с завода или от стороннего поставщика (Не «наши заводы», отличные от САЗа, ВАЗа, Прогресса, КСА, Регулятора, Тулаэлектропривода), выбирается склад ТРАНЗИТ.
 Колонки Количество и Цена проставляются в соответствии со спецификацией.
 Если производится работа по комплектам, то необходимо изменить цену основной комплектующей таким образам, чтобы сумма всех комплектующих по комплекту на закладке Товары стала равна сумме комплекта на закладке Товары на печать.
 Колонка Базовая заполняется по данным от главного инженера проекта. Если в КО нет ГИП, то данные вопросы решают сами менеджеры. Перед заполнением колонки Базовая убедитесь, что на закладке Дополнительно в поле Текущий расчетный прайс установлено значение Основной прайс:</t>
   </si>
   <si>
-    <t>/imgs/2_7.jpg</t>
-  </si>
-  <si>
     <t>Обязательно заполняем вкладку Товары на печать путем копирования строк закладки Товары. Если присутствуют комплекты, то копируем строку с основной комплектующей:</t>
-  </si>
-  <si>
-    <t>/imgs/2_8.jpg</t>
   </si>
   <si>
     <t>В колонке Наименование указывается наименование комплекта согласно договору/спецификации/счету.
@@ -570,18 +477,6 @@
 Внимание!!! Если сотрудник официально не трудоустроен в Юридическом лице, от которого производит отгрузку, третью подпись с должностью и своим ФИО необходимо удалить из счета на оплату, если сотрудник числится в данном Юр. лице, проверяем наименование должности (поскольку наименование должности, которая выводится на печать автоматически, не совпадает с должностью, указанной в трудовом договоре с сотрудником)</t>
   </si>
   <si>
-    <t>/imgs/2_9.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/2_10.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/2_11.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/2_12.jpg</t>
-  </si>
-  <si>
     <t>ДОГОВОР</t>
   </si>
   <si>
@@ -637,19 +532,10 @@
 Организация и Счет организации – обязательно проверяем, т.к. эти реквизиты попадают в печатную форму документов. Счет организации обязательно выбираем тот, который указан в договоре с заказчиком</t>
   </si>
   <si>
-    <t>/imgs/3_1.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/3_2.jpg</t>
-  </si>
-  <si>
     <t>По ссылке Файлы для юристов необходимо прикрепить скан-копию договора.
 Далее договор согласовывается с юристами.</t>
   </si>
   <si>
-    <t>/imgs/3_3.jpg</t>
-  </si>
-  <si>
     <t>ПРИВЯЗКА ОПЛАТЫ</t>
   </si>
   <si>
@@ -698,9 +584,6 @@
       </rPr>
       <t>:</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/4_1.jpg</t>
   </si>
   <si>
     <r>
@@ -754,9 +637,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/4_2.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">После того, как </t>
     </r>
@@ -846,9 +726,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/4_3.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Во вновь открывшемся окне перейти на закладку </t>
     </r>
@@ -896,9 +773,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/4_4.jpg</t>
-  </si>
-  <si>
     <r>
       <t>Далее выделить нужную платежку и нажать кнопку «</t>
     </r>
@@ -925,15 +799,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/4_5.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/4_6.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/4_7.jpg</t>
-  </si>
-  <si>
     <r>
       <t>Важно!</t>
     </r>
@@ -947,9 +812,6 @@
       </rPr>
       <t xml:space="preserve"> Оплата должна быть произведена именно по тому договору/спецификации, который указываются в заказе:</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/4_8.jpg</t>
   </si>
   <si>
     <t>Внимание! Дата Заказа клиента должна быть раньше даты Поступления безналичных ДС. В противоположном случае нужно поменять дату заказа.
@@ -1027,9 +889,6 @@
     <t>В заказе отобразится сумма и процент привязанной оплаты:</t>
   </si>
   <si>
-    <t>/imgs/4_9.jpg</t>
-  </si>
-  <si>
     <r>
       <t>Внимание!</t>
     </r>
@@ -1078,9 +937,6 @@
   </si>
   <si>
     <t>СЧЕТ-ФАКТУРА ВЫДАННЫЙ (АВАНС)</t>
-  </si>
-  <si>
-    <t>/imgs/5_1.jpg</t>
   </si>
   <si>
     <r>
@@ -1379,18 +1235,6 @@
       </rPr>
       <t xml:space="preserve"> не заполняется! Необходимо проверить правильность заполнения № сч-ф, даты, ИНН/КПП и адреса покупателя. В табличной части должна быть одна строка!</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/5_2.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/5_3.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/5_4.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/5_5.jpg</t>
   </si>
   <si>
     <t>ЗАКАЗ ПОСТАВЩИКУ НА ПРОИЗВОДСТВЕННУЮ ПЛОЩАДКУ (САЗ ЗАО, ИПЦ ЗАО, КСА ЗАО, РЕГУЛЯТОР НПО, САЗ ЗАО КОМПЕНСАТОРЫ)</t>
@@ -1456,15 +1300,6 @@
 -	Комментарий, Цена заполняется на основании бланка для заказа, задачи на расценку, ОЛ.</t>
   </si>
   <si>
-    <t>/imgs/6_1.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/6_2.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/6_3.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">В закладке </t>
     </r>
@@ -1489,9 +1324,6 @@
       </rPr>
       <t xml:space="preserve"> остается неизменным.</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/6_4.jpg</t>
   </si>
   <si>
     <t>В закладке «Дополнительно»:
@@ -1499,9 +1331,6 @@
 -	Налогообложение «Закупка облагается НДС».</t>
   </si>
   <si>
-    <t>/imgs/6_5.jpg</t>
-  </si>
-  <si>
     <r>
       <t>Внимание!</t>
     </r>
@@ -1515,22 +1344,13 @@
       </rPr>
       <t xml:space="preserve"> Заказ поставщику необходимо провести. Далее нажать кнопку Печать и выбрать нужную производственную площадку. </t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/6_6.jpg</t>
   </si>
   <si>
     <t>Внимание! Заказ поставщику подписывается в КД, кроме Заказа поставщику на АО НПО «Регулятор».
 После подписания Заказа поставщику создается задача в программе «Мотив». Открываем родительскую задачу по проекту, переходим во вкладку Описание, нажимаем «Создать подзадачу».</t>
   </si>
   <si>
-    <t>/imgs/6_7.jpg</t>
-  </si>
-  <si>
     <t>В появившейся новой вкладке заполняем нужные параметры.</t>
-  </si>
-  <si>
-    <t>/imgs/6_8.jpg</t>
   </si>
   <si>
     <t>Внимание!
@@ -1539,9 +1359,6 @@
 -	Для ЗАО «КСА» в закладке «Дополнительно» необходимо заполнять «Приемку представителем заказчика» и «Требования к документации».</t>
   </si>
   <si>
-    <t>/imgs/6_9.jpg</t>
-  </si>
-  <si>
     <t>ЗАКУПКА У СТОРОННИХ ПОСТАВЩИКОВ
 Лист согласования закупки у сторонних поставщиков (у ответственных менеджеров через КД)</t>
   </si>
@@ -1550,9 +1367,6 @@
 В «Левом счете» в закладке Основное заполняемые параметры идентичны Заказу клиента до поступления продукции под Склад. </t>
   </si>
   <si>
-    <t>/imgs/7_1.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Закладка </t>
     </r>
@@ -1757,9 +1571,6 @@
       </rPr>
       <t xml:space="preserve"> устанавливается цена 1С (цена перехода (цена закупки, умноженная на коэффициент)).</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/7_2.jpg</t>
   </si>
   <si>
     <r>
@@ -1796,17 +1607,8 @@
 Внимание! После поступления продукции под склад необходимо изменить Контрагента на производственную площадку (ЗАО «САЗ», ЗАО «КСА», ЗАО «ВАЗ»), где будет происходить доработка продукции и выбрать соглашение «Перемещение на производственную площадку».</t>
   </si>
   <si>
-    <t>/imgs/7_3.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/7_4.jpg</t>
-  </si>
-  <si>
     <t>ЗАКУПКА У СТОРОННИХ ПОСТАВЩИКОВ
 Согласование заказа с КД (самостоятельная закупка КО без участия ответственных менеджеров КД)</t>
-  </si>
-  <si>
-    <t>/imgs/8_1.jpg</t>
   </si>
   <si>
     <t>В случае если КО (коммерческий отдел) самостоятельно закупает продукцию, то оформляется Согласование заказа с КД на основании Счета на оплату, выставленным поставщиком.
@@ -1822,13 +1624,7 @@
 -	в «Комментарии» указываем счет на оплату.</t>
   </si>
   <si>
-    <t>/imgs/8_2.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Оплата заполняется в соответствии с условиями Счета на оплату/Спецификацией. Дата оплаты проставляется следующим календарным днем на момент подачи в оплату. </t>
-  </si>
-  <si>
-    <t>/imgs/8_3.jpg</t>
   </si>
   <si>
     <t>В закладке Товары 
@@ -1836,9 +1632,6 @@
 -	Комментарий, Цена заполняется на основании Счета на оплату.</t>
   </si>
   <si>
-    <t>/imgs/8_4.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Кнопке </t>
     </r>
@@ -1878,16 +1671,10 @@
     </r>
   </si>
   <si>
-    <t>/imgs/8_5.jpg</t>
-  </si>
-  <si>
     <t>Внимание! При подаче согласования заказа с КД прикладывается счет на оплату.
 После того, как Поступления безналичных ДС будут загружены в программу, их нужно привязать к заказу поставщику. Для этого в документе Заказ поставщику нужно перейти по кнопке Зачет оплаты на закладке Основное.</t>
   </si>
   <si>
-    <t>/imgs/8_6.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Внимание! </t>
     </r>
@@ -1907,9 +1694,6 @@
   </si>
   <si>
     <t>Приобретение товаров и услуг создается на основании УПД от поставщика. В программе 1С Приобретение товаров и услуг создается из Заказа поставщику.</t>
-  </si>
-  <si>
-    <t>/imgs/9_1.jpg</t>
   </si>
   <si>
     <t>В закладке Основное заполняется: 
@@ -1920,23 +1704,14 @@
 Внимание! Закладка Товары заполняется автоматически из Заказа поставщику.</t>
   </si>
   <si>
-    <t>/imgs/9_2.jpg</t>
-  </si>
-  <si>
     <t>Внимание! Необходимо проверить правильность заполнения колонок в закладке Товары с первичными документами от поставщика (УПД): количество, единицы измерения, цену, сумму НДС и сумму с НДС.
 Внимание! В закладке Файл необходимо прикрепить бухгалтерский документ от поставщика.</t>
   </si>
   <si>
-    <t>/imgs/9_3.jpg</t>
-  </si>
-  <si>
     <t>На основании Приобретения товаров и услуг регистрируется счет-фактура, данные вносятся из УПД от поставщика.
 Внимание! Если поставщик работает без НДС, то счет-фактура не создается.</t>
   </si>
   <si>
-    <t>/imgs/9_4.jpg</t>
-  </si>
-  <si>
     <r>
       <t>Внимание!</t>
     </r>
@@ -1970,12 +1745,6 @@
 Перед созданием бухгалтерского документа нужно в документе Заказ клиента на закладке Дополнительно установить флаг Выписка бухгалтерского документа:</t>
   </si>
   <si>
-    <t>/imgs/10_1.jpg</t>
-  </si>
-  <si>
-    <t>/imgs/10_2.jpg</t>
-  </si>
-  <si>
     <r>
       <t>Внимание!</t>
     </r>
@@ -2050,9 +1819,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/10_3.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Закладки </t>
     </r>
@@ -2163,9 +1929,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/10_4.jpg</t>
-  </si>
-  <si>
     <r>
       <t>Дата</t>
     </r>
@@ -2181,34 +1944,60 @@
     </r>
   </si>
   <si>
-    <t>/imgs/10_5.jpg</t>
-  </si>
-  <si>
-    <t>На закладке Дополнительно по ссылке Реквизиты печати ТОРГ12 заполняется:
-Документ:
--	Если есть договор, то выбирается из списка договор;
--	Если договор в 1С не создается (работа по соглашению ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%), то указывается номер и дата спецификации и договора;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> -	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Если договор не заключался совсем, и оплата была по счету, то выбирается Заказ клиента №…, но слова </t>
+    <r>
+      <t>Внимание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> При выгрузке документов в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Диадок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> нужно в окошке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Документ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> вручную написать </t>
     </r>
     <r>
       <rPr>
@@ -2221,102 +2010,6 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Заказ клиента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> вручную перебиваются на </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Счет:</t>
-    </r>
-  </si>
-  <si>
-    <t>/imgs/10_6.jpg</t>
-  </si>
-  <si>
-    <r>
-      <t>Внимание!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> При выгрузке документов в </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Диадок</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> нужно в окошке </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Документ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> вручную написать </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
       <t>Договор № либо Спецификация №… от хх.хх.20хх г. к Договору №</t>
     </r>
     <r>
@@ -2371,9 +2064,6 @@
       </rPr>
       <t xml:space="preserve"> указать соответственно номер и дату реального договора, по которому производится работа с клиентом.</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/10_7.jpg</t>
   </si>
   <si>
     <t>Разделы Покупатели и Продавец заполняются так же, как в спецификации.
@@ -2390,9 +2080,6 @@
 Если выбран грузоотправитель, отличный от ОП ООО УЛТ, то поля «Груз отпустил» и «Отпустил (Должность)» нужно оставить пустыми или вручную в поле «Груз отпустил» указать ФИО Руководителя (например, Зиновьев Юрий Дмитриевич), «Отпустил (Должность)» – указать должность Руководителя, например, Генеральный директор.</t>
   </si>
   <si>
-    <t>/imgs/10_8.jpg</t>
-  </si>
-  <si>
     <t>РЕАЛИЗАЦИЯ ТОВАРОВ И УСЛУГ
 Одновременная отгрузка</t>
   </si>
@@ -2552,9 +2239,6 @@
     </r>
   </si>
   <si>
-    <t>/imgs/11_1.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Далее, после проведения документа, создается </t>
     </r>
@@ -2579,9 +2263,6 @@
       </rPr>
       <t>:</t>
     </r>
-  </si>
-  <si>
-    <t>/imgs/11_2.jpg</t>
   </si>
   <si>
     <t>Закладки Товары и Товары на печать заполняются теми товарами, комплектами и комплектующими, которые отмечены в заказе действием Отгрузить/Отгрузить обособленно. 
@@ -2590,9 +2271,6 @@
 В случае раздельной поставки счет-фактуру присваивают только в бухгалтерском документе на весь комплект, складские накладные на фактическое списание частей комплекта должны быть без счет-фактур!</t>
   </si>
   <si>
-    <t>/imgs/11_3.jpg</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">На закладке </t>
     </r>
@@ -2702,6 +2380,829 @@
         <charset val="204"/>
       </rPr>
       <t>текущей инструкции). В противоположном случае здесь можно ничего не заполнять.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">При создании нового партнера открывается помощник регистрации нового партнера. 
+На первом шаге помощника нужно указать, какого контрагента нужно создать:
+-  Компания с любой формой собственности (ИП, ООО, АО, ЗАО и т.п.)
+- Частное лицо
+Установленный флаг </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Указать идентификационные данные партнера</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> позволяет создать одновременно и партнера, и контрагента. Указываются юридические особенности компании (юр. лицо, юр. лицо за пределами РФ, ИП или обособленное подразделение).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+-	ИНН компании. Данное поле уникально, и не может повторяться у других клиентов, только в том случае если разное КПП. В прикладном решении есть возможность заполнить по ЕГРЮЛ/ЕГРИП поля:
+-	КПП. Контрагент с неверно указанными ИНН/КПП попадает в сегмент клиентов, для которых отгрузка запрещена. 
+-	Код по ОКПО;
+-	Сокращенное юр. наименование с указанием формы собственности;
+-	Публичное наименование (может совпадать с названием) – это название бренда компании, указывается без формы собственности;
+-	Телефон или E-mail компании;
+-	Также обязательно нужно создать хотя бы одно контактное лицо (флаг «Указать данные контактного лица» установлен и заблокирован для изменения). Указывается:
+-	ФИО контактного лица;
+-	Роль –должность контактного лица (не обязательно);
+-	Телефон или E-mail контактного лица.</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/1_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/1_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/1_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/1_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/1_5.png</t>
+  </si>
+  <si>
+    <t>/imgs/1_6.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_5.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_6.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_7.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_8.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_9.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_10.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_11.png</t>
+  </si>
+  <si>
+    <t>/imgs/2_12.png</t>
+  </si>
+  <si>
+    <t>/imgs/3_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/3_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/3_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_5.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_6.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_7.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_8.png</t>
+  </si>
+  <si>
+    <t>/imgs/4_9.png</t>
+  </si>
+  <si>
+    <t>/imgs/5_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/5_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/5_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/5_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/5_5.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_5.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_6.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_7.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_8.png</t>
+  </si>
+  <si>
+    <t>/imgs/6_9.png</t>
+  </si>
+  <si>
+    <t>/imgs/7_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/7_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/7_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/7_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/8_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/8_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/8_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/8_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/8_5.png</t>
+  </si>
+  <si>
+    <t>/imgs/8_6.png</t>
+  </si>
+  <si>
+    <t>/imgs/9_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/9_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/9_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/9_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_4.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_5.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_6.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_7.png</t>
+  </si>
+  <si>
+    <t>/imgs/10_8.png</t>
+  </si>
+  <si>
+    <t>/imgs/11_1.png</t>
+  </si>
+  <si>
+    <t>/imgs/11_2.png</t>
+  </si>
+  <si>
+    <t>/imgs/11_3.png</t>
+  </si>
+  <si>
+    <t>На закладке Дополнительно по ссылке Реквизиты печати ТОРГ12 заполняется:
+Документ:
+-	Если есть договор, то выбирается из списка договор;
+-	Если договор в 1С не создается (работа по соглашению ТИПОВОЕ СОГЛАШЕНИЕ Предоплата 100%), то указывается номер и дата спецификации и договора;
+ -	Если договор не заключался совсем, и оплата была по счету, то выбирается Заказ клиента №…, но слова Заказ клиента вручную перебиваются на Счет:</t>
+  </si>
+  <si>
+    <t>СЧЕТ-ФАКТУРА ВЫДАННЫЙ</t>
+  </si>
+  <si>
+    <t>Внимание! В случае раздельной отгрузки документ Счет-фактура создается только к бухгалтерскому документу! В случае обычной отгрузки – к каждой реализации!
+Документ оформляется путем нажатия в документе Реализация товаров и услуг ссылки Оформить счет-фактуру. 
+Внимание! Перед началом работы со счет-фактурой убедитесь в правильности Даты в документе Реализация товаров и услуг!
+Если нужно оформить документ не текущей датой, а более ранней, то нужно воспользоваться ссылкой Выбрать СФ (бухгалтерия ежедневно создает несколько пустых документов, нужно выбирать один из них для того, чтобы не сбивалась нумерация счет-фактур в течение дня). Если свободных номеров нет, то нужно связаться с бухгалтерией.</t>
+  </si>
+  <si>
+    <t>/imgs/12_1.png</t>
+  </si>
+  <si>
+    <t>Дата – дата фактической отгрузки.
+Если был оплачен аванс (и создан счет-фактура выданный (аванс)), то нужно заполнить Платежно-расчетные документы по ссылке Отсутствуют:</t>
+  </si>
+  <si>
+    <t>/imgs/12_2.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">По нажатии кнопки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заполнить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> табличная часть заполняется существующими авансами:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/12_3.png</t>
+  </si>
+  <si>
+    <t>Номер – Номер по банку на закладке Основное в документе Поступление безналичных ДС.
+Дата – поле от: на закладке Основное в документе Поступление безналичных ДС.</t>
+  </si>
+  <si>
+    <t>/imgs/12_4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма платежно-расчетного документа – та сумма, которая идет в зачет создаваемой реализации. 
+Правила распределения аванса между заказами и/или реализациями прописаны в договоре. </t>
+  </si>
+  <si>
+    <t>/imgs/12_5.png</t>
+  </si>
+  <si>
+    <t>ТРАНСПОРТНАЯ НАКЛАДНАЯ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Документ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Транспортная накладная</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> создается по ссылке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Оформить ТТН</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в документе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Реализация товаров и услуг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> только тогда, когда производится реальная отгрузка товара:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/13_1.png</t>
+  </si>
+  <si>
+    <t>На закладке Основное:
+-	Грузополучатель и Грузоотправитель подставляются из документа Реализация товаров и услуг;
+-	Организация - ОП УЛТ ООО (если отгрузка с УЛТ, если отгрузка транзитом, то ТТН не создается).</t>
+  </si>
+  <si>
+    <t>/imgs/13_2.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На закладке </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Товарный раздел</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выбирается что будет печататься в документах – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>номера накладных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> или </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>товарный состав:</t>
+    </r>
+  </si>
+  <si>
+    <t>На закладке Транспортный раздел указывается:
+-	Перевозчик и Счет перевозчика (может быть наша компания или сторонняя)
+-	Адрес погрузки - откуда будет забираться товар
+-	Адрес доставки – заполняется из документа Реализация товаров и услуг
+-	Заказчик-(плательщик) – кто оплачивает перевозку по договору перевозки
+-	Разделы Водитель и Транспортное средства заполняется если едет отдельная машина (если находит машину транспортный отдел, то данные предоставляют из транспортного отдела, если клиент, то данные вместе с доверенностью предоставляет клиент).</t>
+  </si>
+  <si>
+    <t>/imgs/13_3.png</t>
+  </si>
+  <si>
+    <t>/imgs/13_4.png</t>
+  </si>
+  <si>
+    <t>В печатной форме Вес подтягивается из карточки номенклатуры. При необходимости редактируется вручную.
+После создания всей цепочки документов (Заказ клиента – Реализация товаров и услуг – Счет-фактура – Транспортная накладная) из документа Реализация товаров и услуг печатается пакет документов:
+1.	Товарная накладная (ТОРГ12) – 2 экз.
+2.	Счет-фактура выданный – 2 экз.
+3.	Товарно-транспортная накладная (1-Т) – 3 экз.
+o	Грузоотправитель = поле Грузоотправитель на закладке Основное
+o	по ОКПО – данные из карточки контрагента
+o	Грузополучатель = поле Грузополучатель на закладке Основное
+o	по ОКПО – данные из карточки контрагента
+o	Плательщик = поле  Плательщик на закладке Основное
+o	по ОКПО – данные из карточки контрагента
+o	Номер – номер документа Товарная накладная
+•	ТОВАРНЫЙ РАЗДЕЛ I:
+o	в табличной части:
+	Количество – установить вручную общее количество по накладной
+	Наименование продукции, товара (груза), ТУ, марка, размер, сорт – заполняются номер и дата накладной, указанные на закладке Товарный раздел
+	Единица измерения – вручную перечислить через запятую все ед измерения
+	Вид упаковки - вручную установить согласно упаковочному листу;
+	Количество мест – вручную установить согласно упаковочному листу;
+	Масса, т. - автоматически подставляется из поля Масса (брутто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу
+o	Всего мест, заполняется суммарным количеством отгруженных товаров в реализации. В печатной форме нужно вручную прописью указать количество упаковок согласно упаковочному листу.
+o	Масса груза (нетто) автоматически подставляется из поля Масса (нетто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу.
+o	Масса груза (брутто) – автоматически подставляется из поля Масса (брутто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу.
+o	Отпуск разрешил/Главный (старший) бухгалтер– ФИО и должности подтягиваются из карточки организации, указанной в поле Организация на закладке Основное. Изменить при необходимости (например, на исполняющих обязанности) можно на закладке Товарный раздел.
+o	Отпуск груза произвел – ФИО и должность подтягиваются из соответствующих полей на закладке Товарный раздел
+•	Раздел II:
+o	Организация = поле Перевозчик на закладке Транспортный раздел
+o	Автомобиль = поле Марка на закладке Транспортный раздел
+o	Государственный № =поле Гос. номер на закладке Транспортный раздел
+o	Заказчик (плательщик) = поле Заказчик (плательщик) на закладке Транспортный раздел
+o	Водитель = поле Водитель – ФИО на закладке Транспортный раздел
+o	Удостоверение № = поля Серия удостоверения + номер на закладке Транспортный раздел
+o	Лицензионная карточка = поле Вид лицензионной карточки (стандартная/ограниченная) на закладке Транспортный раздел
+o	Вид перевозки = поле Вид перевозки на закладке Транспортный раздел
+o	Пункт погрузки = поле Адрес погрузки на закладке Транспортный раздел
+o	Пункт разгрузки = поле Адрес доставки на закладке Транспортный раздел
+Если нет информации о водителе и транспортном средстве (доставка осуществляется сторонней компанией), то нужно сделать пометку для базы, чтобы они эту информацию прописали вручную (на листочке/стикере).
+o	В табличной части Сведения о грузе
+	Краткое наименование груза – заполняется автоматически
+	С грузом следуют документы заполняется автоматически если к реализации, которая указана в ТТН, создан счет-фактура.
+	Вид упаковки и Количество мест заполняется вручную согласно упаковочному листу
+	Масса брутто - автоматически подставляется из поля Масса (брутто) на закладке Товарный раздел). Поле редактируется вручную согласно упаковочному листу.
+o	Сдал = поля Отпустил + Груз отпустил (должность) на закладке Транспортный раздел
+4.	Транспортная накладная
+1. Грузоотправитель = Наименование и юридический адрес партнера, указанного в поле Заказчик (плательщик) на закладке Транспортный раздел (плательщик за транспорт)
+2. Грузополучатель = Наименование, ИНН, юридический и фактический адрес партнера, указанного в поле Грузополучатель на закладке Транспортный раздел
+3. Груз 
+o	Отгрузочное наименование груза… - заполняется автоматически
+o	Количество грузовых мест, маркировка, вид тары и способ упаковки – заполняется не корректно, нужно вручную указать в соответствии с упаковочным листом
+o	Масса груза брутто в килограммах, масса груза нетто... – заполняется из карточек товара, нужно вручную указать в соответствии с упаковочным листом
+4.Сопроводительные документы на груз (при наличии)
+o	Перечень прилагаемых к грузу сертификатов, паспортов качества, удостоверений…- заполняется автоматически
+o	Реквизиты документа, подтверждающего об отгрузке – номер+дата документов Реализация товаров и услуг, а также Счет-фактур к ним, которые указаны на закладке Товарный раздел
+5.Указания грузоотправителя по особым условиям перевозки - раздел оставить не заполненным
+6. Перевозчик (уточнить в транспортном отделе)
+o	Реквизиты, позволяющие идентифицировать Перевозчика – Наименование, ИНН и юр. адрес организации, указанной в поле Перевозчик на закладке Транспортный раздел
+o	Реквизиты, позволяющие идентифицировать водителя(ей) – ФИО Водитель на закладке Транспортный раздел. Номер телефона и номер и дату водительского удостоверения нужно внести вручную.
+7. Транспортное средство (уточнить в транспортном отделе)
+o	Тип, марка, грузоподъемность (в тоннах), вместимость (в кубических метрах) – поля Тип, Марка, Вместимость, Грузоподъемность на закладке Транспортный раздел
+o	Регистрационный номер транспортного средства – Гос. Номер на закладке Транспортный раздел
+8. Прием груза
+o	Реквизиты лица, действующего по поручению… – Наименование, ИНН и фактический адрес организации, указанной в поле Грузоотправитель на закладке Основное. Если ИНН организации, указанной в этом поле равен 6454083390 (организации Армы), то поле печатной формы не заполняется
+o	Наименование организаций-владельцев объектов инфраструктуры пунктов погрузки и основания беспрепятственного доступа к таким объектам… – Наименование, ИНН и фактический адрес организации, указанной в поле Грузоотправитель на закладке Основное.
+o	Адрес места погрузки – Фактический адрес из карточки организации, указанной в поле Грузоотправитель на закладке Основное 
+o	Количество грузовых мест – заполняется не корректно, нужно указать вручную в соответствии с упаковочным листом
+o	Тара, упаковка (при наличии) – подставляется автоматически во все печатные формы одинаково
+o	Подпись, расшифровка подписи лица, осуществившего погрузку… = поля Отпустил + Груз отпустил (должность) на закладке Транспортный раздел
+o	Подпись, расшифровка подписи водителя, принявшего груз для перевозки = поле ФИО Водитель на закладке Транспортный раздел
+9. Переадресовка (при наличии) перевозки - раздел оставить не заполненным
+10. Выдача груза
+o	Адрес места выгрузки = поле Адрес доставки на закладке Транспортный отдел
+o	Фактическое состояние груза, тары, упаковки, маркировки, опломбирования – заполняется автоматически
+o	Подпись, расшифровка подписи водителя, сдавшего груз… = поле ФИО Водитель на закладке Транспортный раздел
+11. Отметки грузоотправителей, грузополучателей, перевозчиков (при необходимости) - раздел оставить не заполненным
+12. Стоимость перевозки груза (установленная плата) в рублях (при необходимости) - раздел оставить не заполненным.
+Образцы ТН приведены в Приложении 3.</t>
+  </si>
+  <si>
+    <t>ЗАЯВКА В ПРОГРАММЕ «МОТИВ» НА АВТОТРАНСПОРТ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В программе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«Мотив»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> заходим в закладку документы, выбираем «</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Создать документ»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. В </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>карточке документа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выбираем </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Шаблон автотранспорт (заявка на перевозку груза автотранспортом)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и заполняем параметры, необходимые для поиска автотранспорта. Ориентировочная дата оплаты клиентом транспортных расходов проставляется через неделю на момент заполнения заявки.</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/14_1.png</t>
+  </si>
+  <si>
+    <t>ЗАЯВКА НА ВОЗВРАТ</t>
+  </si>
+  <si>
+    <r>
+      <t>Заявки на возврат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> могут быть оформлены на основании документа </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Реализация товаров и услуг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и расположены в списке документов в разделе </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Продажи – Заявки на возврат товаров от клиента.</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/15_1.png</t>
+  </si>
+  <si>
+    <t>Менеджер создает Заявку на возврат в статусе На согласовании и отправляет на согласование заместителю коммерческого директора. В обсуждении к документу нужно указать номер информационной задачи в мотиве. После установки статуса К возврату ответственным лицом документ опять становится доступным для редактирования менеджеру. 
+На закладке Основное выбирается Склад, на который будет оформлен возврат:</t>
+  </si>
+  <si>
+    <t>/imgs/15_2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При оформлении заявки на возврат товаров доступны Способы компенсации:
+■ Вернуть денежные средства. Денежные средства клиенту возвращаются. Для отражения возврата денежных средств оформляются платежные документы.
+■ Оставить в качестве аванса. Денежные средства клиенту не возвращаются. После оформления возврата товаров денежные средства могут быть зачтены в качестве аванса по другой операции (по заказу клиента).
+■ Заменить товары. Если необходимо оформить замену товаров, то дополнительно заполняется информация о товарах, которые будут отгружены покупателю в качестве замены возвращаемых товаров. Эта информация заполняется на закладке Заменяющие товары. Если в качестве замены должен быть отгружен точно такой же товар, то для заполнения списка товаров можно использовать кнопку Заполнить возвращаемыми товарами. </t>
+  </si>
+  <si>
+    <t>/imgs/15_3.png</t>
+  </si>
+  <si>
+    <t>Закладка Возвращаемые товары заполняется товаром по документу основанию (из реализации товаров и услуг, на основании которой была создана заявка на возврат). Состав и количество правится вручную. 
+Внимание!!! Поле Назначение, если оно заполнено, необходимо очистить!</t>
+  </si>
+  <si>
+    <t>/imgs/15_4.png</t>
+  </si>
+  <si>
+    <t>ЗАЯВКА НА ВОЗВРАТ
+Возврат товаров от клиента</t>
+  </si>
+  <si>
+    <t>Для оформления возврата товаров по Заявке на возврат необходимо получить согласование у заместителя коммерческого директора (установлен статус К возврату). Документ Возврат товаров от клиента создается на основании Заявки на возврат и заполняется автоматически:</t>
+  </si>
+  <si>
+    <t>/imgs/16_1.png</t>
+  </si>
+  <si>
+    <r>
+      <t>Дата документа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> – реальная дата, когда товар поступил на склад</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/16_2.png</t>
+  </si>
+  <si>
+    <t>ЗАЯВКА НА ВОЗВРАТ
+Реализация товаров и услуг (на замену)</t>
+  </si>
+  <si>
+    <t>Замена товаров оформляется на основании Заявки на возврат. Для оформления замены товаров необходимо в заявке на возврат установить статус К выполнению.
+На закладке Заменяющие товары указать вариант обеспечения (Действие) - Отгрузить.</t>
+  </si>
+  <si>
+    <t>/imgs/17_1.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отгрузка заменяемых товаров осуществляется оформлением документа </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Реализация товаров и услуг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Документ заполняется автоматически данными из заявки:</t>
+    </r>
+  </si>
+  <si>
+    <t>/imgs/17_2.png</t>
+  </si>
+  <si>
+    <r>
+      <t>Внимание!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Если оформляется неофициальный возврат (договоренность по телефону), то Счет-фактура к этой реализации не создается.</t>
     </r>
   </si>
 </sst>
@@ -2709,7 +3210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2870,13 +3371,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2891,7 +3385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2928,24 +3422,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2974,12 +3455,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -2987,12 +3462,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3026,29 +3495,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3364,21 +3815,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.21875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" style="14" customWidth="1"/>
     <col min="2" max="2" width="143.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3389,837 +3840,1033 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="281.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="78" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="C4" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="219" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="C6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="156" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="156" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C13" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="63" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C14" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C15" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="C16" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="156" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C19" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="B21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C21" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="156" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C22" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="C24" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="78" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="C25" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="C27" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C28" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C29" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="78" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C32" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C36" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="B37" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="C37" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="C38" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B39" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C39" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="C41" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="C42" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C43" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="C44" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C45" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C46" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="C47" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="C48" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C49" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="C50" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C51" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="22" t="s">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="B54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="C56" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="C58" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="B60" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="C60" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="C61" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="C62" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="B65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="C68" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A69" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="C69" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="C71" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="234" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="C72" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C73" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A70" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="87" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="234" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="35" t="s">
+      <c r="A77" s="17" t="s">
         <v>158</v>
       </c>
+      <c r="B77" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="C77" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="30" t="s">
         <v>160</v>
       </c>
+    </row>
+    <row r="78" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A92" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A93" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
